--- a/Testergebnisse-Bachelorarbeit.xlsx
+++ b/Testergebnisse-Bachelorarbeit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\Bachelor-Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F387641-AFFE-4980-925C-155B6F12E1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2047B1-E2AD-46D8-A580-2B3CF9A5C00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="0" windowWidth="10650" windowHeight="11370" xr2:uid="{820D8640-657D-459F-B6EE-08676D90DF60}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{820D8640-657D-459F-B6EE-08676D90DF60}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="33">
   <si>
     <t>CHROME</t>
   </si>
@@ -115,6 +115,24 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>gRPC-Web</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Text (small)</t>
+  </si>
+  <si>
+    <t>Text (medium)</t>
+  </si>
+  <si>
+    <t>Text (large)</t>
+  </si>
 </sst>
 </file>
 
@@ -186,6 +204,5428 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Web-Client -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t>0 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Requests</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t> (Median)</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AS$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AR$86:$AR$92</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AS$86:$AS$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>384.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2393.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D964-4D29-9126-53DB1875D880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AT$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AR$86:$AR$92</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AT$86:$AT$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15745.650000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D964-4D29-9126-53DB1875D880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AU$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gRPC-Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AR$86:$AR$92</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AU$86:$AU$92</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>32.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5682.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107938</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D964-4D29-9126-53DB1875D880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1633587696"/>
+        <c:axId val="1633586736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1633587696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633586736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1633586736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latenz in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1633587696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Konsolen-Client - Einzelrequests (Median) </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-AT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$W$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$V$119:$V$126</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$119:$W$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59AC-4332-BA4A-6D9BB04A7F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$X$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$V$119:$V$126</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$X$119:$X$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59AC-4332-BA4A-6D9BB04A7F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Y$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gRPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$V$119:$V$126</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$119:$Y$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-59AC-4332-BA4A-6D9BB04A7F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Z$118</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gRPC-Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$V$119:$V$126</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Z$119:$Z$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>717.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-59AC-4332-BA4A-6D9BB04A7F31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1620895872"/>
+        <c:axId val="1620884832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1620895872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620884832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1620884832"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latenz in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1620895872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Web-Client - Browserperformancevergleich (Median, Einzelrequests) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$63:$AE$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$64:$AE$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$65:$AE$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Foto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$66:$AE$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>36.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>490.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>386.95000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>162.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Audio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$67:$AE$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>151.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5658.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13172.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6383.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2587.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Video</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$68:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>353.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>678.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48285.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9825.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7875.0499999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$V$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$W$61:$AE$62</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Chrome</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Firefox</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Edge</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>REST</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>GraphQL</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>gRPC-Web</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$69:$AE$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-751C-418E-AA68-7F61C1C69D04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1322223376"/>
+        <c:axId val="1322223856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1322223376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1322223856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1322223856"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Latenz in ms</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1322223376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT"/>
+              <a:t>Web-Client - Einzelrequests (Median) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AN$169</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>REST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AM$170:$AM$177</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AN$170:$AN$177</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D39A-4528-921E-58A61F65E1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AO$169</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GraphQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AM$170:$AM$177</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AO$170:$AO$177</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5658.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D39A-4528-921E-58A61F65E1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$AP$169</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gRPC-Web</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$AM$170:$AM$177</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>Text (small)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Text (medium)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Text (large)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Foto</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Audio</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Video</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Blog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$AP$170:$AP$177</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>7.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2354.9499999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D39A-4528-921E-58A61F65E1B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1460757808"/>
+        <c:axId val="1460756848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1460757808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1460756848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1460756848"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>Latenz in ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1460757808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -230,6 +5670,150 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>233734</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>6485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>266160</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9DC6507-86E3-715A-A4E9-0F9BB37F87E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>654655</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>117625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>579176</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>55824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6FB753-9AC8-2E71-1420-E893DB891952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>10383</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>135692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>91854</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>18969</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEAB94CC-C565-6217-532F-17B0548D7004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>348074</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>10113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>333963</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>119239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAB8F79-8D8A-6EBD-B690-F1BB3CD21B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -552,10 +6136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C192D02-2B44-4E5C-AB95-E83D001DCDCF}">
-  <dimension ref="A3:AQ166"/>
+  <dimension ref="A3:BC184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q60" sqref="E60:Q60"/>
+    <sheetView tabSelected="1" topLeftCell="AH145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BB150" sqref="BB150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2661,10 +8245,6 @@
         <f>AVERAGE(F31:O31)</f>
         <v>8.5</v>
       </c>
-      <c r="R31">
-        <f>MEDIAN(F31:O31)</f>
-        <v>8</v>
-      </c>
       <c r="S31" t="s">
         <v>24</v>
       </c>
@@ -2707,12 +8287,8 @@
         <f t="shared" ref="Q32:Q76" si="0">AVERAGE(F32:O32)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="R32">
-        <f t="shared" ref="R32:R76" si="1">MEDIAN(F32:O32)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>6</v>
       </c>
@@ -2750,15 +8326,11 @@
         <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
-      <c r="R33">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
       <c r="S33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>7</v>
       </c>
@@ -2799,12 +8371,8 @@
         <f t="shared" si="0"/>
         <v>54.4</v>
       </c>
-      <c r="R34">
-        <f t="shared" si="1"/>
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>9</v>
       </c>
@@ -2842,12 +8410,8 @@
         <f t="shared" si="0"/>
         <v>248.7</v>
       </c>
-      <c r="R35">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>10</v>
       </c>
@@ -2885,15 +8449,11 @@
         <f t="shared" si="0"/>
         <v>676.4</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="1"/>
-        <v>678.5</v>
-      </c>
       <c r="S36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>17</v>
       </c>
@@ -2931,15 +8491,11 @@
         <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="S37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -2983,15 +8539,11 @@
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
       <c r="S38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>5</v>
       </c>
@@ -3029,12 +8581,8 @@
         <f t="shared" si="0"/>
         <v>11.1</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>6</v>
       </c>
@@ -3072,15 +8620,11 @@
         <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
-      <c r="R40">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
       <c r="S40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>7</v>
       </c>
@@ -3121,15 +8665,11 @@
         <f t="shared" si="0"/>
         <v>1743.4</v>
       </c>
-      <c r="R41">
-        <f t="shared" si="1"/>
-        <v>1690</v>
-      </c>
       <c r="S41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>9</v>
       </c>
@@ -3167,12 +8707,8 @@
         <f>AVERAGE(F42:O42)</f>
         <v>13253.3</v>
       </c>
-      <c r="R42">
-        <f t="shared" si="1"/>
-        <v>13172.5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>10</v>
       </c>
@@ -3210,14 +8746,9 @@
         <f>AVERAGE(F43:O43)</f>
         <v>90091</v>
       </c>
-      <c r="R43">
-        <f t="shared" si="1"/>
-        <v>48285.5</v>
-      </c>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>17</v>
       </c>
@@ -3255,17 +8786,12 @@
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="R44">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
       <c r="S44" t="s">
         <v>26</v>
       </c>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>12</v>
       </c>
@@ -3309,17 +8835,12 @@
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="R45">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
       <c r="S45" t="s">
         <v>24</v>
       </c>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>5</v>
       </c>
@@ -3357,14 +8878,9 @@
         <f t="shared" si="0"/>
         <v>9.4</v>
       </c>
-      <c r="R46">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>6</v>
       </c>
@@ -3402,14 +8918,9 @@
         <f t="shared" si="0"/>
         <v>24.2</v>
       </c>
-      <c r="R47">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -3450,17 +8961,12 @@
         <f t="shared" si="0"/>
         <v>248.1</v>
       </c>
-      <c r="R48">
-        <f t="shared" si="1"/>
-        <v>267</v>
-      </c>
       <c r="S48" t="s">
         <v>25</v>
       </c>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>9</v>
       </c>
@@ -3498,14 +9004,9 @@
         <f t="shared" si="0"/>
         <v>2455.6</v>
       </c>
-      <c r="R49">
-        <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>10</v>
       </c>
@@ -3543,14 +9044,9 @@
         <f t="shared" si="0"/>
         <v>8984.7999999999993</v>
       </c>
-      <c r="R50">
-        <f t="shared" si="1"/>
-        <v>9825.5</v>
-      </c>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>17</v>
       </c>
@@ -3588,15 +9084,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="R51">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
       <c r="S51" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -3631,7 +9123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>2</v>
       </c>
@@ -3676,14 +9168,14 @@
         <v>4.8400000000000007</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(F56:O56)</f>
         <v>4.95</v>
       </c>
       <c r="S56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>5</v>
       </c>
@@ -3722,11 +9214,11 @@
         <v>6.31</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="R57:R76" si="1">MEDIAN(F57:O57)</f>
         <v>6.1</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D58" t="s">
         <v>6</v>
       </c>
@@ -3772,7 +9264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +9313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D60" t="s">
         <v>9</v>
       </c>
@@ -3864,7 +9356,7 @@
         <v>143.35000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D61" t="s">
         <v>10</v>
       </c>
@@ -3906,8 +9398,17 @@
         <f t="shared" si="1"/>
         <v>405.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="W61" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
         <v>17</v>
       </c>
@@ -3952,8 +9453,35 @@
       <c r="S62" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="W62" t="s">
+        <v>23</v>
+      </c>
+      <c r="X62" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>11</v>
       </c>
@@ -4004,8 +9532,45 @@
       <c r="S63" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="V63" t="s">
+        <v>30</v>
+      </c>
+      <c r="W63">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="X63">
+        <f t="shared" ref="X63:X69" si="2">MEDIAN(F31:O31)</f>
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" ref="Y63:Y69" si="3">MEDIAN(F56:O56)</f>
+        <v>4.95</v>
+      </c>
+      <c r="Z63">
+        <v>7.4</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" ref="AA63:AA69" si="4">MEDIAN(F38:O38)</f>
+        <v>8</v>
+      </c>
+      <c r="AB63">
+        <f>MEDIAN(F63:O63)</f>
+        <v>5.35</v>
+      </c>
+      <c r="AC63">
+        <v>7.5</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" ref="AD63:AD69" si="5">MEDIAN(F45:O45)</f>
+        <v>9</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" ref="AE63:AE69" si="6">MEDIAN(F70:O70)</f>
+        <v>5.35</v>
+      </c>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D64" t="s">
         <v>5</v>
       </c>
@@ -4047,6 +9612,43 @@
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
+      <c r="V64" t="s">
+        <v>31</v>
+      </c>
+      <c r="W64">
+        <v>8.75</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="Z64">
+        <v>7.6</v>
+      </c>
+      <c r="AA64">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AB64">
+        <f>MEDIAN(F64:O64)</f>
+        <v>5.7</v>
+      </c>
+      <c r="AC64">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AD64">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="6"/>
+        <v>5.65</v>
+      </c>
+      <c r="AF64" s="3"/>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D65" t="s">
@@ -4090,6 +9692,43 @@
         <f t="shared" si="1"/>
         <v>7.35</v>
       </c>
+      <c r="V65" t="s">
+        <v>32</v>
+      </c>
+      <c r="W65">
+        <v>12.9</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="3"/>
+        <v>9.65</v>
+      </c>
+      <c r="Z65">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="AB65">
+        <f>MEDIAN(F65:O65)</f>
+        <v>7.35</v>
+      </c>
+      <c r="AC65">
+        <v>18.8</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="6"/>
+        <v>19.8</v>
+      </c>
+      <c r="AF65" s="3"/>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.35">
       <c r="C66" t="s">
@@ -4139,6 +9778,42 @@
       <c r="S66" t="s">
         <v>25</v>
       </c>
+      <c r="V66" t="s">
+        <v>8</v>
+      </c>
+      <c r="W66">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="3"/>
+        <v>37.400000000000006</v>
+      </c>
+      <c r="Z66">
+        <v>490.5</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="4"/>
+        <v>1690</v>
+      </c>
+      <c r="AB66">
+        <f>MEDIAN(F66:O66)</f>
+        <v>386.95000000000005</v>
+      </c>
+      <c r="AC66">
+        <v>162.6</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="5"/>
+        <v>267</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="6"/>
+        <v>178.8</v>
+      </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D67" t="s">
@@ -4182,11 +9857,73 @@
         <f t="shared" si="1"/>
         <v>6383.15</v>
       </c>
+      <c r="V67" t="s">
+        <v>9</v>
+      </c>
+      <c r="W67">
+        <v>151.55000000000001</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" si="3"/>
+        <v>143.35000000000002</v>
+      </c>
+      <c r="Z67">
+        <v>5658.2999999999993</v>
+      </c>
+      <c r="AA67">
+        <f t="shared" si="4"/>
+        <v>13172.5</v>
+      </c>
+      <c r="AB67">
+        <f>MEDIAN(F67:O67)</f>
+        <v>6383.15</v>
+      </c>
+      <c r="AC67">
+        <v>2355</v>
+      </c>
+      <c r="AD67">
+        <f t="shared" si="5"/>
+        <v>2700</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="6"/>
+        <v>2587.75</v>
+      </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.35">
       <c r="D68" t="s">
         <v>10</v>
       </c>
+      <c r="V68" t="s">
+        <v>10</v>
+      </c>
+      <c r="W68">
+        <v>353.6</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="2"/>
+        <v>678.5</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="3"/>
+        <v>405.9</v>
+      </c>
+      <c r="AA68">
+        <f t="shared" si="4"/>
+        <v>48285.5</v>
+      </c>
+      <c r="AD68">
+        <f t="shared" si="5"/>
+        <v>9825.5</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="6"/>
+        <v>7875.0499999999993</v>
+      </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.35">
       <c r="C69" t="s">
@@ -4233,6 +9970,43 @@
       <c r="S69" t="s">
         <v>26</v>
       </c>
+      <c r="V69" t="s">
+        <v>17</v>
+      </c>
+      <c r="W69">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="3"/>
+        <v>7.75</v>
+      </c>
+      <c r="Z69">
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AA69">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AB69">
+        <f>MEDIAN(F69:O69)</f>
+        <v>5.15</v>
+      </c>
+      <c r="AC69">
+        <v>7.75</v>
+      </c>
+      <c r="AD69">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AF69" s="4"/>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
@@ -4661,7 +10435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>2</v>
       </c>
@@ -4774,12 +10548,8 @@
         <f>AVERAGE(F81:AI81)</f>
         <v>45.49</v>
       </c>
-      <c r="AP81" s="2">
-        <f>MEDIAN(F81:AI81)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D82" t="s">
         <v>5</v>
       </c>
@@ -4880,12 +10650,8 @@
         <f>AVERAGE(F82:AI82)</f>
         <v>61.853333333333346</v>
       </c>
-      <c r="AP82" s="2">
-        <f>MEDIAN(F82:AI82)</f>
-        <v>61.95</v>
-      </c>
-    </row>
-    <row r="83" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D83" t="s">
         <v>6</v>
       </c>
@@ -4986,12 +10752,8 @@
         <f>AVERAGE(F83:AI83)</f>
         <v>92.099999999999966</v>
       </c>
-      <c r="AP83" s="2">
-        <f>MEDIAN(F83:AI83)</f>
-        <v>93.6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
         <v>7</v>
       </c>
@@ -5058,12 +10820,8 @@
         <f>AVERAGE(F84:AI84)</f>
         <v>385.78000000000003</v>
       </c>
-      <c r="AP84" s="1">
-        <f>MEDIAN(F84:AI84)</f>
-        <v>384.6</v>
-      </c>
-    </row>
-    <row r="85" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D85" t="s">
         <v>9</v>
       </c>
@@ -5124,12 +10882,17 @@
         <f>AVERAGE(F85:AI85)</f>
         <v>2420.0800000000004</v>
       </c>
-      <c r="AP85" s="1">
-        <f>MEDIAN(F85:AI85)</f>
-        <v>2393.35</v>
-      </c>
-    </row>
-    <row r="86" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AS85" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT85" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D86" t="s">
         <v>10</v>
       </c>
@@ -5167,9 +10930,24 @@
         <v>10</v>
       </c>
       <c r="AO86" s="1"/>
-      <c r="AP86" s="1"/>
-    </row>
-    <row r="87" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR86" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS86" s="2">
+        <f>MEDIAN(F81:AI81)</f>
+        <v>44</v>
+      </c>
+      <c r="AT86" s="1">
+        <f>MEDIAN(F88:AI88)</f>
+        <v>29</v>
+      </c>
+      <c r="AU86" s="1">
+        <f>MEDIAN(F95:AI95)</f>
+        <v>32.049999999999997</v>
+      </c>
+      <c r="AV86" s="3"/>
+    </row>
+    <row r="87" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>17</v>
       </c>
@@ -5270,12 +11048,24 @@
         <f>AVERAGE(F87:AI87)</f>
         <v>53.016666666666666</v>
       </c>
-      <c r="AP87" s="1">
-        <f>MEDIAN(F87:AI87)</f>
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="88" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS87" s="2">
+        <f>MEDIAN(F82:AI82)</f>
+        <v>61.95</v>
+      </c>
+      <c r="AT87" s="1">
+        <f>MEDIAN(F89:AI89)</f>
+        <v>33.35</v>
+      </c>
+      <c r="AU87" s="1">
+        <f>MEDIAN(F96:AI96)</f>
+        <v>40.85</v>
+      </c>
+      <c r="AV87" s="3"/>
+    </row>
+    <row r="88" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>11</v>
       </c>
@@ -5388,12 +11178,24 @@
         <f>AVERAGE(F88:AI88)</f>
         <v>31.443333333333332</v>
       </c>
-      <c r="AP88" s="1">
-        <f>MEDIAN(F88:AI88)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="89" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR88" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS88" s="2">
+        <f>MEDIAN(F83:AI83)</f>
+        <v>93.6</v>
+      </c>
+      <c r="AT88" s="1">
+        <f>MEDIAN(F90:AI90)</f>
+        <v>68.7</v>
+      </c>
+      <c r="AU88" s="1">
+        <f>MEDIAN(F97:AI97)</f>
+        <v>145.4</v>
+      </c>
+      <c r="AV88" s="3"/>
+    </row>
+    <row r="89" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D89" t="s">
         <v>5</v>
       </c>
@@ -5494,12 +11296,23 @@
         <f>AVERAGE(F89:AI89)</f>
         <v>35.370000000000005</v>
       </c>
-      <c r="AP89" s="1">
-        <f>MEDIAN(F89:AI89)</f>
-        <v>33.35</v>
-      </c>
-    </row>
-    <row r="90" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR89" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS89" s="1">
+        <f>MEDIAN(F84:AI84)</f>
+        <v>384.6</v>
+      </c>
+      <c r="AT89" s="1">
+        <f>MEDIAN(F91:AI91)</f>
+        <v>15745.650000000001</v>
+      </c>
+      <c r="AU89" s="1">
+        <f>MEDIAN(F98:AI98)</f>
+        <v>5682.4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D90" t="s">
         <v>6</v>
       </c>
@@ -5600,12 +11413,20 @@
         <f>AVERAGE(F90:AI90)</f>
         <v>71.148766666666674</v>
       </c>
-      <c r="AP90" s="1">
-        <f>MEDIAN(F90:AI90)</f>
-        <v>68.7</v>
-      </c>
-    </row>
-    <row r="91" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR90" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS90" s="1">
+        <f>MEDIAN(F85:AI85)</f>
+        <v>2393.35</v>
+      </c>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1">
+        <f>MEDIAN(F99:AI99)</f>
+        <v>107938</v>
+      </c>
+    </row>
+    <row r="91" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>7</v>
       </c>
@@ -5672,12 +11493,14 @@
         <f>AVERAGE(F91:AI91)</f>
         <v>16159.569999999998</v>
       </c>
-      <c r="AP91" s="1">
-        <f>MEDIAN(F91:AI91)</f>
-        <v>15745.650000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR91" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+    </row>
+    <row r="92" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D92" t="s">
         <v>9</v>
       </c>
@@ -5718,9 +11541,24 @@
         <f>AVERAGE(F91:O91)</f>
         <v>16159.569999999998</v>
       </c>
-      <c r="AP92" s="1"/>
-    </row>
-    <row r="93" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="AR92" t="s">
+        <v>17</v>
+      </c>
+      <c r="AS92" s="1">
+        <f>MEDIAN(F87:AI87)</f>
+        <v>48.25</v>
+      </c>
+      <c r="AT92" s="1">
+        <f>MEDIAN(F94:AI94)</f>
+        <v>33</v>
+      </c>
+      <c r="AU92" s="1">
+        <f>MEDIAN(F101:AI101)</f>
+        <v>31.25</v>
+      </c>
+      <c r="AV92" s="4"/>
+    </row>
+    <row r="93" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D93" t="s">
         <v>10</v>
       </c>
@@ -5758,9 +11596,8 @@
         <v>10</v>
       </c>
       <c r="AO93" s="1"/>
-      <c r="AP93" s="1"/>
-    </row>
-    <row r="94" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="2:48" x14ac:dyDescent="0.35">
       <c r="C94" t="s">
         <v>17</v>
       </c>
@@ -5858,15 +11695,11 @@
         <v>17</v>
       </c>
       <c r="AO94" s="1">
-        <f t="shared" ref="AO94:AO99" si="2">AVERAGE(F94:AI94)</f>
+        <f t="shared" ref="AO94:AO99" si="7">AVERAGE(F94:AI94)</f>
         <v>34.606666666666662</v>
       </c>
-      <c r="AP94" s="1">
-        <f t="shared" ref="AP94:AP99" si="3">MEDIAN(F94:AI94)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="95" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="2:48" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>12</v>
       </c>
@@ -5976,15 +11809,11 @@
         <v>4</v>
       </c>
       <c r="AO95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>33.409999999999997</v>
       </c>
-      <c r="AP95" s="1">
-        <f t="shared" si="3"/>
-        <v>32.049999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="2:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="2:48" x14ac:dyDescent="0.35">
       <c r="D96" t="s">
         <v>5</v>
       </c>
@@ -6082,15 +11911,11 @@
         <v>5</v>
       </c>
       <c r="AO96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>43.506666666666661</v>
       </c>
-      <c r="AP96" s="1">
-        <f t="shared" si="3"/>
-        <v>40.85</v>
-      </c>
-    </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="D97" t="s">
         <v>6</v>
       </c>
@@ -6188,15 +12013,11 @@
         <v>6</v>
       </c>
       <c r="AO97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>145.28</v>
       </c>
-      <c r="AP97" s="1">
-        <f t="shared" si="3"/>
-        <v>145.4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>7</v>
       </c>
@@ -6263,12 +12084,8 @@
         <f>AVERAGE(F98:AI98)</f>
         <v>5736.23</v>
       </c>
-      <c r="AP98" s="1">
-        <f t="shared" si="3"/>
-        <v>5682.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.35">
       <c r="D99" t="s">
         <v>9</v>
       </c>
@@ -6326,15 +12143,11 @@
         <v>9</v>
       </c>
       <c r="AO99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>126026.53</v>
       </c>
-      <c r="AP99" s="1">
-        <f t="shared" si="3"/>
-        <v>107938</v>
-      </c>
-    </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.35">
       <c r="D100" t="s">
         <v>10</v>
       </c>
@@ -6372,9 +12185,8 @@
         <v>10</v>
       </c>
       <c r="AO100" s="1"/>
-      <c r="AP100" s="1"/>
-    </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>17</v>
       </c>
@@ -6475,17 +12287,13 @@
         <f>AVERAGE(F101:AI101)</f>
         <v>34.519999999999989</v>
       </c>
-      <c r="AP101" s="1">
-        <f>MEDIAN(F101:AI101)</f>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.35">
       <c r="F107">
         <v>1</v>
       </c>
@@ -6523,7 +12331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>2</v>
       </c>
@@ -6573,15 +12381,11 @@
         <v>4</v>
       </c>
       <c r="T108" s="3">
-        <f>AVERAGE(F108:O108)</f>
+        <f t="shared" ref="T108:T118" si="8">AVERAGE(F108:O108)</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="U108" s="3">
-        <f>MEDIAN(F108:O108)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.35">
       <c r="D109" t="s">
         <v>5</v>
       </c>
@@ -6619,15 +12423,11 @@
         <v>5</v>
       </c>
       <c r="T109" s="3">
-        <f>AVERAGE(F109:O109)</f>
+        <f t="shared" si="8"/>
         <v>2.1</v>
       </c>
-      <c r="U109" s="3">
-        <f>MEDIAN(F109:O109)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="D110" t="s">
         <v>6</v>
       </c>
@@ -6665,15 +12465,11 @@
         <v>6</v>
       </c>
       <c r="T110" s="3">
-        <f>AVERAGE(F110:O110)</f>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
-      <c r="U110" s="3">
-        <f>MEDIAN(F110:O110)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>7</v>
       </c>
@@ -6717,15 +12513,11 @@
         <v>8</v>
       </c>
       <c r="T111">
-        <f>AVERAGE(F111:O111)</f>
+        <f t="shared" si="8"/>
         <v>45.9</v>
       </c>
-      <c r="U111">
-        <f>MEDIAN(F111:O111)</f>
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:42" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.35">
       <c r="D112" t="s">
         <v>9</v>
       </c>
@@ -6763,15 +12555,11 @@
         <v>9</v>
       </c>
       <c r="T112">
-        <f>AVERAGE(F112:O112)</f>
+        <f t="shared" si="8"/>
         <v>250.4</v>
       </c>
-      <c r="U112">
-        <f>MEDIAN(F112:O112)</f>
-        <v>249.5</v>
-      </c>
-    </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D113" t="s">
         <v>10</v>
       </c>
@@ -6809,15 +12597,11 @@
         <v>10</v>
       </c>
       <c r="T113">
-        <f>AVERAGE(F113:O113)</f>
+        <f t="shared" si="8"/>
         <v>540.20000000000005</v>
       </c>
-      <c r="U113">
-        <f>MEDIAN(F113:O113)</f>
-        <v>515</v>
-      </c>
-    </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C114" t="s">
         <v>17</v>
       </c>
@@ -6855,15 +12639,11 @@
         <v>17</v>
       </c>
       <c r="T114" s="4">
-        <f>AVERAGE(F114:O114)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="U114" s="4">
-        <f>MEDIAN(F114:O114)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>11</v>
       </c>
@@ -6913,469 +12693,559 @@
         <v>4</v>
       </c>
       <c r="T115" s="3">
-        <f>AVERAGE(F115:O115)</f>
+        <f t="shared" si="8"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="U115" s="3">
+    </row>
+    <row r="116" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116">
+        <v>3</v>
+      </c>
+      <c r="S116" t="s">
+        <v>5</v>
+      </c>
+      <c r="T116" s="3">
+        <f t="shared" si="8"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>7</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>5</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>7</v>
+      </c>
+      <c r="S117" t="s">
+        <v>6</v>
+      </c>
+      <c r="T117" s="3">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>4658</v>
+      </c>
+      <c r="G118">
+        <v>5972</v>
+      </c>
+      <c r="H118">
+        <v>6171</v>
+      </c>
+      <c r="I118">
+        <v>5790</v>
+      </c>
+      <c r="J118">
+        <v>5694</v>
+      </c>
+      <c r="K118">
+        <v>6102</v>
+      </c>
+      <c r="L118">
+        <v>5611</v>
+      </c>
+      <c r="M118">
+        <v>5591</v>
+      </c>
+      <c r="N118">
+        <v>5966</v>
+      </c>
+      <c r="O118">
+        <v>5607</v>
+      </c>
+      <c r="R118" t="s">
+        <v>7</v>
+      </c>
+      <c r="S118" t="s">
+        <v>8</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="8"/>
+        <v>5716.2</v>
+      </c>
+      <c r="W118" t="s">
+        <v>2</v>
+      </c>
+      <c r="X118" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>9</v>
+      </c>
+      <c r="S119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="S120" t="s">
+        <v>10</v>
+      </c>
+      <c r="V120" t="s">
+        <v>30</v>
+      </c>
+      <c r="W120" s="3">
+        <v>2</v>
+      </c>
+      <c r="X120" s="3">
         <f>MEDIAN(F115:O115)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116">
+      <c r="Y120" s="3">
+        <f t="shared" ref="Y120:Y126" si="9">MEDIAN(F129:O129)</f>
+        <v>1</v>
+      </c>
+      <c r="Z120" s="3">
+        <f t="shared" ref="Z120:Z126" si="10">MEDIAN(F122:O122)</f>
         <v>2</v>
       </c>
-      <c r="G116">
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
         <v>2</v>
       </c>
-      <c r="H116">
+      <c r="H121">
         <v>2</v>
       </c>
-      <c r="I116">
+      <c r="I121">
         <v>2</v>
       </c>
-      <c r="J116">
+      <c r="J121">
         <v>3</v>
       </c>
-      <c r="K116">
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
         <v>2</v>
       </c>
-      <c r="L116">
+      <c r="M121">
         <v>2</v>
       </c>
-      <c r="M116">
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121">
         <v>2</v>
       </c>
-      <c r="N116">
+      <c r="R121" t="s">
+        <v>17</v>
+      </c>
+      <c r="T121" s="4">
+        <f t="shared" ref="T121:T135" si="11">AVERAGE(F121:O121)</f>
+        <v>2.4</v>
+      </c>
+      <c r="V121" t="s">
+        <v>31</v>
+      </c>
+      <c r="W121" s="3">
         <v>2</v>
       </c>
-      <c r="O116">
-        <v>3</v>
-      </c>
-      <c r="S116" t="s">
-        <v>5</v>
-      </c>
-      <c r="T116" s="3">
-        <f>AVERAGE(F116:O116)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U116" s="3">
+      <c r="X121" s="3">
         <f>MEDIAN(F116:O116)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117">
-        <v>5</v>
-      </c>
-      <c r="G117">
-        <v>6</v>
-      </c>
-      <c r="H117">
-        <v>5</v>
-      </c>
-      <c r="I117">
+      <c r="Y121" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="Z121" s="3">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
+        <v>2</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>2</v>
+      </c>
+      <c r="O122">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>18</v>
+      </c>
+      <c r="R122" t="s">
+        <v>3</v>
+      </c>
+      <c r="S122" t="s">
+        <v>4</v>
+      </c>
+      <c r="T122" s="3">
+        <f t="shared" si="11"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V122" t="s">
+        <v>32</v>
+      </c>
+      <c r="W122" s="3">
         <v>7</v>
       </c>
-      <c r="J117">
-        <v>6</v>
-      </c>
-      <c r="K117">
-        <v>5</v>
-      </c>
-      <c r="L117">
-        <v>5</v>
-      </c>
-      <c r="M117">
-        <v>5</v>
-      </c>
-      <c r="N117">
-        <v>4</v>
-      </c>
-      <c r="O117">
-        <v>7</v>
-      </c>
-      <c r="S117" t="s">
-        <v>6</v>
-      </c>
-      <c r="T117" s="3">
-        <f>AVERAGE(F117:O117)</f>
-        <v>5.5</v>
-      </c>
-      <c r="U117" s="3">
+      <c r="X122" s="3">
         <f>MEDIAN(F117:O117)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C118" t="s">
+      <c r="Y122" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="Z122" s="3">
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
-      <c r="D118" t="s">
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+      <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
+        <v>2</v>
+      </c>
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123">
+        <v>3</v>
+      </c>
+      <c r="S123" t="s">
+        <v>5</v>
+      </c>
+      <c r="T123" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8</v>
+      </c>
+      <c r="V123" t="s">
         <v>8</v>
       </c>
-      <c r="F118">
-        <v>4658</v>
-      </c>
-      <c r="G118">
-        <v>5972</v>
-      </c>
-      <c r="H118">
-        <v>6171</v>
-      </c>
-      <c r="I118">
-        <v>5790</v>
-      </c>
-      <c r="J118">
-        <v>5694</v>
-      </c>
-      <c r="K118">
-        <v>6102</v>
-      </c>
-      <c r="L118">
-        <v>5611</v>
-      </c>
-      <c r="M118">
-        <v>5591</v>
-      </c>
-      <c r="N118">
-        <v>5966</v>
-      </c>
-      <c r="O118">
-        <v>5607</v>
-      </c>
-      <c r="R118" t="s">
-        <v>7</v>
-      </c>
-      <c r="S118" t="s">
-        <v>8</v>
-      </c>
-      <c r="T118">
-        <f>AVERAGE(F118:O118)</f>
-        <v>5716.2</v>
-      </c>
-      <c r="U118">
+      <c r="W123">
+        <v>41.5</v>
+      </c>
+      <c r="X123">
         <f>MEDIAN(F118:O118)</f>
         <v>5742</v>
       </c>
-    </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D119" t="s">
+      <c r="Y123">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="Z123">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>7</v>
+      </c>
+      <c r="G124">
+        <v>7</v>
+      </c>
+      <c r="H124">
+        <v>6</v>
+      </c>
+      <c r="I124">
+        <v>7</v>
+      </c>
+      <c r="J124">
+        <v>7</v>
+      </c>
+      <c r="K124">
+        <v>7</v>
+      </c>
+      <c r="L124">
+        <v>7</v>
+      </c>
+      <c r="M124">
+        <v>6</v>
+      </c>
+      <c r="N124">
+        <v>7</v>
+      </c>
+      <c r="O124">
+        <v>7</v>
+      </c>
+      <c r="S124" t="s">
+        <v>6</v>
+      </c>
+      <c r="T124" s="3">
+        <f t="shared" si="11"/>
+        <v>6.8</v>
+      </c>
+      <c r="V124" t="s">
         <v>9</v>
       </c>
-      <c r="S119" t="s">
+      <c r="W124">
+        <v>249.5</v>
+      </c>
+      <c r="Y124">
+        <f t="shared" si="9"/>
+        <v>249</v>
+      </c>
+      <c r="Z124">
+        <f t="shared" si="10"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125">
+        <v>55</v>
+      </c>
+      <c r="G125">
+        <v>50</v>
+      </c>
+      <c r="H125">
+        <v>40</v>
+      </c>
+      <c r="I125">
+        <v>37</v>
+      </c>
+      <c r="J125">
+        <v>53</v>
+      </c>
+      <c r="K125">
+        <v>55</v>
+      </c>
+      <c r="L125">
+        <v>53</v>
+      </c>
+      <c r="M125">
+        <v>53</v>
+      </c>
+      <c r="N125">
+        <v>69</v>
+      </c>
+      <c r="O125">
+        <v>48</v>
+      </c>
+      <c r="R125" t="s">
+        <v>7</v>
+      </c>
+      <c r="S125" t="s">
+        <v>8</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="11"/>
+        <v>51.3</v>
+      </c>
+      <c r="V125" t="s">
+        <v>10</v>
+      </c>
+      <c r="W125">
+        <v>515</v>
+      </c>
+      <c r="Y125">
+        <f t="shared" si="9"/>
+        <v>615</v>
+      </c>
+      <c r="Z125">
+        <f t="shared" si="10"/>
+        <v>717.5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D120" t="s">
-        <v>10</v>
-      </c>
-      <c r="S120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C121" t="s">
+      <c r="F126">
+        <v>267</v>
+      </c>
+      <c r="G126">
+        <v>238</v>
+      </c>
+      <c r="H126">
+        <v>254</v>
+      </c>
+      <c r="I126">
+        <v>263</v>
+      </c>
+      <c r="J126">
+        <v>245</v>
+      </c>
+      <c r="K126">
+        <v>244</v>
+      </c>
+      <c r="L126">
+        <v>275</v>
+      </c>
+      <c r="M126">
+        <v>236</v>
+      </c>
+      <c r="N126">
+        <v>251</v>
+      </c>
+      <c r="O126">
+        <v>241</v>
+      </c>
+      <c r="S126" t="s">
+        <v>9</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="11"/>
+        <v>251.4</v>
+      </c>
+      <c r="V126" t="s">
         <v>17</v>
       </c>
-      <c r="F121">
-        <v>3</v>
-      </c>
-      <c r="G121">
-        <v>2</v>
-      </c>
-      <c r="H121">
-        <v>2</v>
-      </c>
-      <c r="I121">
-        <v>2</v>
-      </c>
-      <c r="J121">
-        <v>3</v>
-      </c>
-      <c r="K121">
-        <v>3</v>
-      </c>
-      <c r="L121">
-        <v>2</v>
-      </c>
-      <c r="M121">
-        <v>2</v>
-      </c>
-      <c r="N121">
-        <v>3</v>
-      </c>
-      <c r="O121">
-        <v>2</v>
-      </c>
-      <c r="R121" t="s">
-        <v>17</v>
-      </c>
-      <c r="T121" s="4">
-        <f>AVERAGE(F121:O121)</f>
-        <v>2.4</v>
-      </c>
-      <c r="U121" s="4">
+      <c r="W126" s="4">
+        <v>1</v>
+      </c>
+      <c r="X126" s="4">
         <f>MEDIAN(F121:O121)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="Y126" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Z126" s="4">
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="D122" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122">
-        <v>2</v>
-      </c>
-      <c r="G122">
-        <v>3</v>
-      </c>
-      <c r="H122">
-        <v>2</v>
-      </c>
-      <c r="I122">
-        <v>3</v>
-      </c>
-      <c r="J122">
-        <v>2</v>
-      </c>
-      <c r="K122">
-        <v>2</v>
-      </c>
-      <c r="L122">
-        <v>2</v>
-      </c>
-      <c r="M122">
-        <v>2</v>
-      </c>
-      <c r="N122">
-        <v>2</v>
-      </c>
-      <c r="O122">
-        <v>2</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>18</v>
-      </c>
-      <c r="R122" t="s">
-        <v>3</v>
-      </c>
-      <c r="S122" t="s">
-        <v>4</v>
-      </c>
-      <c r="T122" s="3">
-        <f>AVERAGE(F122:O122)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U122" s="3">
-        <f>MEDIAN(F122:O122)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>3</v>
-      </c>
-      <c r="H123">
-        <v>3</v>
-      </c>
-      <c r="I123">
-        <v>3</v>
-      </c>
-      <c r="J123">
-        <v>2</v>
-      </c>
-      <c r="K123">
-        <v>3</v>
-      </c>
-      <c r="L123">
-        <v>3</v>
-      </c>
-      <c r="M123">
-        <v>2</v>
-      </c>
-      <c r="N123">
-        <v>3</v>
-      </c>
-      <c r="O123">
-        <v>3</v>
-      </c>
-      <c r="S123" t="s">
-        <v>5</v>
-      </c>
-      <c r="T123" s="3">
-        <f>AVERAGE(F123:O123)</f>
-        <v>2.8</v>
-      </c>
-      <c r="U123" s="3">
-        <f>MEDIAN(F123:O123)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124">
-        <v>7</v>
-      </c>
-      <c r="G124">
-        <v>7</v>
-      </c>
-      <c r="H124">
-        <v>6</v>
-      </c>
-      <c r="I124">
-        <v>7</v>
-      </c>
-      <c r="J124">
-        <v>7</v>
-      </c>
-      <c r="K124">
-        <v>7</v>
-      </c>
-      <c r="L124">
-        <v>7</v>
-      </c>
-      <c r="M124">
-        <v>6</v>
-      </c>
-      <c r="N124">
-        <v>7</v>
-      </c>
-      <c r="O124">
-        <v>7</v>
-      </c>
-      <c r="S124" t="s">
-        <v>6</v>
-      </c>
-      <c r="T124" s="3">
-        <f>AVERAGE(F124:O124)</f>
-        <v>6.8</v>
-      </c>
-      <c r="U124" s="3">
-        <f>MEDIAN(F124:O124)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125">
-        <v>55</v>
-      </c>
-      <c r="G125">
-        <v>50</v>
-      </c>
-      <c r="H125">
-        <v>40</v>
-      </c>
-      <c r="I125">
-        <v>37</v>
-      </c>
-      <c r="J125">
-        <v>53</v>
-      </c>
-      <c r="K125">
-        <v>55</v>
-      </c>
-      <c r="L125">
-        <v>53</v>
-      </c>
-      <c r="M125">
-        <v>53</v>
-      </c>
-      <c r="N125">
-        <v>69</v>
-      </c>
-      <c r="O125">
-        <v>48</v>
-      </c>
-      <c r="R125" t="s">
-        <v>7</v>
-      </c>
-      <c r="S125" t="s">
-        <v>8</v>
-      </c>
-      <c r="T125">
-        <f>AVERAGE(F125:O125)</f>
-        <v>51.3</v>
-      </c>
-      <c r="U125">
-        <f>MEDIAN(F125:O125)</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.35">
-      <c r="D126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126">
-        <v>267</v>
-      </c>
-      <c r="G126">
-        <v>238</v>
-      </c>
-      <c r="H126">
-        <v>254</v>
-      </c>
-      <c r="I126">
-        <v>263</v>
-      </c>
-      <c r="J126">
-        <v>245</v>
-      </c>
-      <c r="K126">
-        <v>244</v>
-      </c>
-      <c r="L126">
-        <v>275</v>
-      </c>
-      <c r="M126">
-        <v>236</v>
-      </c>
-      <c r="N126">
-        <v>251</v>
-      </c>
-      <c r="O126">
-        <v>241</v>
-      </c>
-      <c r="S126" t="s">
-        <v>9</v>
-      </c>
-      <c r="T126">
-        <f>AVERAGE(F126:O126)</f>
-        <v>251.4</v>
-      </c>
-      <c r="U126">
-        <f>MEDIAN(F126:O126)</f>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.35">
       <c r="D127" t="s">
         <v>10</v>
       </c>
@@ -7413,15 +13283,11 @@
         <v>10</v>
       </c>
       <c r="T127">
-        <f>AVERAGE(F127:O127)</f>
+        <f t="shared" si="11"/>
         <v>705.1</v>
       </c>
-      <c r="U127">
-        <f>MEDIAN(F127:O127)</f>
-        <v>717.5</v>
-      </c>
-    </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.35">
       <c r="C128" t="s">
         <v>17</v>
       </c>
@@ -7459,12 +13325,8 @@
         <v>17</v>
       </c>
       <c r="T128" s="4">
-        <f>AVERAGE(F128:O128)</f>
+        <f t="shared" si="11"/>
         <v>2.9</v>
-      </c>
-      <c r="U128" s="4">
-        <f>MEDIAN(F128:O128)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.35">
@@ -7517,12 +13379,8 @@
         <v>4</v>
       </c>
       <c r="T129" s="3">
-        <f>AVERAGE(F129:O129)</f>
+        <f t="shared" si="11"/>
         <v>1.2</v>
-      </c>
-      <c r="U129" s="3">
-        <f>MEDIAN(F129:O129)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.35">
@@ -7563,11 +13421,7 @@
         <v>5</v>
       </c>
       <c r="T130" s="3">
-        <f>AVERAGE(F130:O130)</f>
-        <v>1.5</v>
-      </c>
-      <c r="U130" s="3">
-        <f>MEDIAN(F130:O130)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
@@ -7609,12 +13463,8 @@
         <v>6</v>
       </c>
       <c r="T131" s="3">
-        <f>AVERAGE(F131:O131)</f>
+        <f t="shared" si="11"/>
         <v>4.0999999999999996</v>
-      </c>
-      <c r="U131" s="3">
-        <f>MEDIAN(F131:O131)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.35">
@@ -7661,12 +13511,8 @@
         <v>8</v>
       </c>
       <c r="T132">
-        <f>AVERAGE(F132:O132)</f>
+        <f t="shared" si="11"/>
         <v>42.7</v>
-      </c>
-      <c r="U132">
-        <f>MEDIAN(F132:O132)</f>
-        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.35">
@@ -7707,12 +13553,8 @@
         <v>9</v>
       </c>
       <c r="T133">
-        <f>AVERAGE(F133:O133)</f>
+        <f t="shared" si="11"/>
         <v>252.1</v>
-      </c>
-      <c r="U133">
-        <f>MEDIAN(F133:O133)</f>
-        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.35">
@@ -7753,12 +13595,8 @@
         <v>10</v>
       </c>
       <c r="T134">
-        <f>AVERAGE(F134:O134)</f>
+        <f t="shared" si="11"/>
         <v>610</v>
-      </c>
-      <c r="U134">
-        <f>MEDIAN(F134:O134)</f>
-        <v>615</v>
       </c>
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.35">
@@ -7799,12 +13637,8 @@
         <v>17</v>
       </c>
       <c r="T135" s="4">
-        <f>AVERAGE(F135:O135)</f>
+        <f t="shared" si="11"/>
         <v>1.1000000000000001</v>
-      </c>
-      <c r="U135" s="4">
-        <f>MEDIAN(F135:O135)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.35">
@@ -7826,7 +13660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:40" x14ac:dyDescent="0.35">
       <c r="F145">
         <v>1</v>
       </c>
@@ -7918,7 +13752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="2:43" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B146" t="s">
         <v>2</v>
       </c>
@@ -8027,16 +13861,8 @@
       <c r="AN146" t="s">
         <v>4</v>
       </c>
-      <c r="AP146" s="1">
-        <f t="shared" ref="AP146:AP164" si="4">AVERAGE(F146:AI146)</f>
-        <v>8.5966666666666676</v>
-      </c>
-      <c r="AQ146" s="1">
-        <f t="shared" ref="AQ146:AQ164" si="5">MEDIAN(F146:AI146)</f>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="147" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D147" t="s">
         <v>5</v>
       </c>
@@ -8133,16 +13959,8 @@
       <c r="AN147" t="s">
         <v>5</v>
       </c>
-      <c r="AP147" s="1">
-        <f t="shared" si="4"/>
-        <v>9.0033333333333321</v>
-      </c>
-      <c r="AQ147" s="1">
-        <f t="shared" si="5"/>
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="148" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D148" t="s">
         <v>6</v>
       </c>
@@ -8239,16 +14057,8 @@
       <c r="AN148" t="s">
         <v>6</v>
       </c>
-      <c r="AP148" s="1">
-        <f t="shared" si="4"/>
-        <v>13.22</v>
-      </c>
-      <c r="AQ148" s="1">
-        <f t="shared" si="5"/>
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="149" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C149" t="s">
         <v>7</v>
       </c>
@@ -8351,16 +14161,8 @@
       <c r="AN149" t="s">
         <v>8</v>
       </c>
-      <c r="AP149" s="1">
-        <f t="shared" si="4"/>
-        <v>36.126666666666672</v>
-      </c>
-      <c r="AQ149" s="1">
-        <f t="shared" si="5"/>
-        <v>36.450000000000003</v>
-      </c>
-    </row>
-    <row r="150" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D150" t="s">
         <v>9</v>
       </c>
@@ -8457,16 +14259,8 @@
       <c r="AN150" t="s">
         <v>9</v>
       </c>
-      <c r="AP150" s="1">
-        <f t="shared" si="4"/>
-        <v>148.91666666666666</v>
-      </c>
-      <c r="AQ150" s="1">
-        <f t="shared" si="5"/>
-        <v>151.55000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D151" t="s">
         <v>10</v>
       </c>
@@ -8563,16 +14357,8 @@
       <c r="AN151" t="s">
         <v>10</v>
       </c>
-      <c r="AP151" s="1">
-        <f t="shared" si="4"/>
-        <v>365.0243333333334</v>
-      </c>
-      <c r="AQ151" s="1">
-        <f t="shared" si="5"/>
-        <v>353.6</v>
-      </c>
-    </row>
-    <row r="152" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C152" t="s">
         <v>17</v>
       </c>
@@ -8669,16 +14455,8 @@
       <c r="AM152" t="s">
         <v>17</v>
       </c>
-      <c r="AP152" s="1">
-        <f t="shared" si="4"/>
-        <v>8.6133333333333333</v>
-      </c>
-      <c r="AQ152" s="1">
-        <f t="shared" si="5"/>
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="153" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>11</v>
       </c>
@@ -8787,16 +14565,8 @@
       <c r="AN153" t="s">
         <v>4</v>
       </c>
-      <c r="AP153" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6266666666666678</v>
-      </c>
-      <c r="AQ153" s="1">
-        <f t="shared" si="5"/>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="154" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D154" t="s">
         <v>5</v>
       </c>
@@ -8893,16 +14663,8 @@
       <c r="AN154" t="s">
         <v>5</v>
       </c>
-      <c r="AP154" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6866666666666665</v>
-      </c>
-      <c r="AQ154" s="1">
-        <f t="shared" si="5"/>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="155" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D155" t="s">
         <v>6</v>
       </c>
@@ -8999,16 +14761,8 @@
       <c r="AN155" t="s">
         <v>6</v>
       </c>
-      <c r="AP155" s="1">
-        <f t="shared" si="4"/>
-        <v>10.126666666666669</v>
-      </c>
-      <c r="AQ155" s="1">
-        <f t="shared" si="5"/>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="156" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C156" t="s">
         <v>7</v>
       </c>
@@ -9111,16 +14865,8 @@
       <c r="AN156" t="s">
         <v>8</v>
       </c>
-      <c r="AP156" s="1">
-        <f t="shared" si="4"/>
-        <v>511.74333333333328</v>
-      </c>
-      <c r="AQ156" s="1">
-        <f t="shared" si="5"/>
-        <v>490.5</v>
-      </c>
-    </row>
-    <row r="157" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D157" t="s">
         <v>9</v>
       </c>
@@ -9217,16 +14963,8 @@
       <c r="AN157" t="s">
         <v>9</v>
       </c>
-      <c r="AP157" s="1">
-        <f t="shared" si="4"/>
-        <v>5896.883333333335</v>
-      </c>
-      <c r="AQ157" s="1">
-        <f t="shared" si="5"/>
-        <v>5658.2999999999993</v>
-      </c>
-    </row>
-    <row r="158" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="2:40" x14ac:dyDescent="0.35">
       <c r="D158" t="s">
         <v>10</v>
       </c>
@@ -9263,10 +15001,8 @@
       <c r="AN158" t="s">
         <v>10</v>
       </c>
-      <c r="AP158" s="1"/>
-      <c r="AQ158" s="1"/>
-    </row>
-    <row r="159" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C159" t="s">
         <v>17</v>
       </c>
@@ -9363,16 +15099,8 @@
       <c r="AM159" t="s">
         <v>17</v>
       </c>
-      <c r="AP159" s="1">
-        <f t="shared" si="4"/>
-        <v>7.6099999999999994</v>
-      </c>
-      <c r="AQ159" s="1">
-        <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="160" spans="2:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B160" t="s">
         <v>12</v>
       </c>
@@ -9481,16 +15209,8 @@
       <c r="AN160" t="s">
         <v>4</v>
       </c>
-      <c r="AP160" s="1">
-        <f t="shared" si="4"/>
-        <v>7.5166666666666666</v>
-      </c>
-      <c r="AQ160" s="1">
-        <f t="shared" si="5"/>
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="161" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="3:42" x14ac:dyDescent="0.35">
       <c r="D161" t="s">
         <v>5</v>
       </c>
@@ -9587,16 +15307,8 @@
       <c r="AN161" t="s">
         <v>5</v>
       </c>
-      <c r="AP161" s="1">
-        <f t="shared" si="4"/>
-        <v>8.3533333333333317</v>
-      </c>
-      <c r="AQ161" s="1">
-        <f t="shared" si="5"/>
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="162" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="3:42" x14ac:dyDescent="0.35">
       <c r="D162" t="s">
         <v>6</v>
       </c>
@@ -9693,16 +15405,8 @@
       <c r="AN162" t="s">
         <v>6</v>
       </c>
-      <c r="AP162" s="1">
-        <f t="shared" si="4"/>
-        <v>18.789999999999996</v>
-      </c>
-      <c r="AQ162" s="1">
-        <f t="shared" si="5"/>
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="163" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C163" t="s">
         <v>7</v>
       </c>
@@ -9805,16 +15509,8 @@
       <c r="AN163" t="s">
         <v>8</v>
       </c>
-      <c r="AP163" s="1">
-        <f t="shared" si="4"/>
-        <v>181.97666666666666</v>
-      </c>
-      <c r="AQ163" s="1">
-        <f t="shared" si="5"/>
-        <v>162.6</v>
-      </c>
-    </row>
-    <row r="164" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="3:42" x14ac:dyDescent="0.35">
       <c r="D164" t="s">
         <v>9</v>
       </c>
@@ -9911,16 +15607,8 @@
       <c r="AN164" t="s">
         <v>9</v>
       </c>
-      <c r="AP164" s="1">
-        <f t="shared" si="4"/>
-        <v>2372.46</v>
-      </c>
-      <c r="AQ164" s="1">
-        <f t="shared" si="5"/>
-        <v>2354.9499999999998</v>
-      </c>
-    </row>
-    <row r="165" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="3:42" x14ac:dyDescent="0.35">
       <c r="D165" t="s">
         <v>10</v>
       </c>
@@ -9957,10 +15645,8 @@
       <c r="AN165" t="s">
         <v>10</v>
       </c>
-      <c r="AP165" s="1"/>
-      <c r="AQ165" s="1"/>
-    </row>
-    <row r="166" spans="3:43" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="3:42" x14ac:dyDescent="0.35">
       <c r="C166" t="s">
         <v>17</v>
       </c>
@@ -10057,14 +15743,182 @@
       <c r="AM166" t="s">
         <v>17</v>
       </c>
-      <c r="AP166" s="1">
-        <f>AVERAGE(F166:AI166)</f>
-        <v>7.8733333333333357</v>
-      </c>
-      <c r="AQ166" s="1">
+    </row>
+    <row r="169" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AL169" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP169" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AM171" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN171" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AO171" s="1">
+        <f>MEDIAN(F153:AI153)</f>
+        <v>7.4</v>
+      </c>
+      <c r="AP171" s="1">
+        <f>MEDIAN(F160:AI160)</f>
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="172" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AM172" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN172" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="AO172" s="1">
+        <f>MEDIAN(F154:AI154)</f>
+        <v>7.6</v>
+      </c>
+      <c r="AP172" s="1">
+        <f>MEDIAN(F161:AI161)</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="173" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AM173" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN173" s="1">
+        <v>12.9</v>
+      </c>
+      <c r="AO173" s="1">
+        <f>MEDIAN(F155:AI155)</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AP173" s="1">
+        <f>MEDIAN(F162:AI162)</f>
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="174" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AM174" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN174" s="1">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="AO174" s="1">
+        <f>MEDIAN(F156:AI156)</f>
+        <v>490.5</v>
+      </c>
+      <c r="AP174" s="1">
+        <f>MEDIAN(F163:AI163)</f>
+        <v>162.6</v>
+      </c>
+    </row>
+    <row r="175" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AM175" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN175" s="1">
+        <v>151.55000000000001</v>
+      </c>
+      <c r="AO175" s="1">
+        <f>MEDIAN(F157:AI157)</f>
+        <v>5658.2999999999993</v>
+      </c>
+      <c r="AP175" s="1">
+        <f>MEDIAN(F164:AI164)</f>
+        <v>2354.9499999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="AM176" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN176" s="1">
+        <v>353.6</v>
+      </c>
+      <c r="AO176" s="1"/>
+      <c r="AP176" s="1"/>
+    </row>
+    <row r="177" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AM177" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN177" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AO177" s="1">
+        <f>MEDIAN(F159:AI159)</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="AP177" s="1">
         <f>MEDIAN(F166:AI166)</f>
         <v>7.75</v>
       </c>
+    </row>
+    <row r="178" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX178" s="1"/>
+      <c r="AY178" s="1"/>
+      <c r="AZ178" s="1"/>
+      <c r="BA178" s="1"/>
+      <c r="BB178" s="1"/>
+      <c r="BC178" s="1"/>
+    </row>
+    <row r="179" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX179" s="1"/>
+      <c r="AY179" s="1"/>
+      <c r="AZ179" s="1"/>
+      <c r="BA179" s="1"/>
+      <c r="BB179" s="1"/>
+      <c r="BC179" s="1"/>
+    </row>
+    <row r="180" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX180" s="1"/>
+      <c r="AY180" s="1"/>
+      <c r="AZ180" s="1"/>
+      <c r="BA180" s="1"/>
+      <c r="BB180" s="1"/>
+      <c r="BC180" s="1"/>
+    </row>
+    <row r="181" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX181" s="1"/>
+      <c r="AY181" s="1"/>
+      <c r="AZ181" s="1"/>
+      <c r="BA181" s="1"/>
+      <c r="BB181" s="1"/>
+      <c r="BC181" s="1"/>
+    </row>
+    <row r="182" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX182" s="1"/>
+      <c r="AY182" s="1"/>
+      <c r="AZ182" s="1"/>
+      <c r="BA182" s="1"/>
+      <c r="BB182" s="1"/>
+      <c r="BC182" s="1"/>
+    </row>
+    <row r="183" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX183" s="1"/>
+      <c r="AY183" s="1"/>
+      <c r="AZ183" s="1"/>
+      <c r="BA183" s="1"/>
+      <c r="BB183" s="1"/>
+      <c r="BC183" s="1"/>
+    </row>
+    <row r="184" spans="39:55" x14ac:dyDescent="0.35">
+      <c r="AX184" s="1"/>
+      <c r="AY184" s="1"/>
+      <c r="AZ184" s="1"/>
+      <c r="BA184" s="1"/>
+      <c r="BB184" s="1"/>
+      <c r="BC184" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.78740157500000008" bottom="0.78740157500000008" header="0.30000000000000004" footer="0.30000000000000004"/>
